--- a/Parser_True_Final/reyki.xlsx
+++ b/Parser_True_Final/reyki.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,6 +620,450 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Рулевая рейка Honda Civic IX седан 2012-, ACURA ILX 2012-</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>E3650U</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Honda Civic IX седан 2012-, ACURA ILX 2012-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38 057 P</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>53600TS8A04, 53601TS8A04, 53601TR7A01, 53601TR6A91, 53601TT0T01, 53601TR3Y91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3GS2913, HO115R, HO115, E43452RB, E43451RB, E4421, E4345, ATGE44211RB</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>В наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Рулевая рейка ACURA Legend 1991-1996, Honda Legend 1991-1996</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>H1004U</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Honda Legend 1991-1996, ACURA Legend 1991-1996</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23 465 P</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>53601SP0G04, 53601SP0G02, 53601SP0G00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2GS8101, HO215</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>В наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Рулевая рейка ACURA MDX 2015-</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>E1002U</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ACURA MDX 2015-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29 579 P</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>53601TZ5A01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3GS8103, R0837</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>В наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Рулевая рейка ACURA MDX 2015-</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>E1002N</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ACURA MDX 2015-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>75 652 P</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>53601TZ5A01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3GS8103OE</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>В наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Рулевая рейка ACURA MDX 2001-2006</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>H1006A</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ACURA MDX 2001-2006</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17 986 P</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>53601S3VA02, 53600S3VA04RM</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2GS8102C, R2443, R0830, AC202, R24432RB, R24431RB, R24431NW, AC9002KIT, 262722, 262719</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>В наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Рулевая рейка ACURA MDX 2001-2006</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>H1016A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ACURA MDX 2001-2006</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18 170 P</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>53608S3VA01, 53601S3VA01, 06536S3V505RM</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2GS8106C, R0801, AC9002KIT</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>В наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Рулевая рейка ACURA MDX 2001-2006</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>H1016U</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ACURA MDX 2001-2006</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24 921 P</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>53608S3VA01, 53601S3VA01, 06536S3V505RM</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2GS8106, R0801, AC9002KIT</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>В наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Рулевая рейка ACURA MDX 2001-2006</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>H1006U</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ACURA MDX 2001-2006</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28 264 P</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>53601S3VA02, 53600S3VA04RM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2GS8102, R0830, AC202, R24432RB, R24431RB, R24431NW, R2443, AC9002KIT, 262722, 262719</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>В наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Рулевая рейка ACURA MDX 2006-</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>H1008A</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ACURA MDX 2006-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18 243 P</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>53601STXA01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2GS8103C, HO226, R27302RB, R27301NW, HO9017KIT</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>В наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Рулевая рейка ACURA MDX 2006-</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>H1008U</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ACURA MDX 2006-</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21 023 P</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>53601STXA01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>R28151NW, HSR28151AY, 401N10220Z, R28152RB, R2815, 2GS8103, HO226, HO9017KIT</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>В наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Рулевая рейка ACURA TL 1996-1998, ACURA RL 1996-2004</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>H1014U</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ACURA RL 1996-2004, ACURA TL 1996-1998</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29 634 P</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>06536S0K505RM, 53601S0KA01, 53601SZ5A00, 06536SZ5515RM</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>26-2713, 2GS8105, 262713</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Рулевая рейка ACURA RL 2005-</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>H1002U</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ACURA RL 2005-</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>28 307 P</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>53601SJAA05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2GS2946, HO9008KIT</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Нет в наличии</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
